--- a/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 30,87</t>
+          <t>-16,22; 23,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 69,69</t>
+          <t>-41,34; 100,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,45</t>
+          <t>-14,5; 0,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 9,35</t>
+          <t>-8,87; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 7,74</t>
+          <t>-8,82; 4,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 21,13</t>
+          <t>-16,87; 21,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 8,02</t>
+          <t>-19,58; 0,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,26</t>
+          <t>-12,14; 8,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 11,3</t>
+          <t>-11,57; 6,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 36,01</t>
+          <t>-41,29; 101,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,57</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 0,56</t>
+          <t>-8,96; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 5,64</t>
+          <t>-3,38; 9,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,92</t>
+          <t>-6,83; 7,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 2,52</t>
+          <t>-9,87; 25,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 0,82</t>
+          <t>-11,69; 8,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 8,96</t>
+          <t>-4,31; 13,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,99</t>
+          <t>-8,93; 11,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 3,22</t>
+          <t>-29,81; 114,35</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 9,86</t>
+          <t>-5,92; 16,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 15,73</t>
+          <t>-16,42; 61,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 11,75</t>
+          <t>-0,38; 21,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 3,62</t>
+          <t>-11,1; 8,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 9,32</t>
+          <t>-7,92; 11,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 23,66</t>
+          <t>-17,57; 27,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 26,7</t>
+          <t>-0,85; 72,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 7,12</t>
+          <t>-21,68; 20,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 21,62</t>
+          <t>-19,84; 37,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 100,26</t>
+          <t>-48,59; 185,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>36,2%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 0,56</t>
+          <t>-13,1; 0,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 5,64</t>
+          <t>-10,61; 3,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,92</t>
+          <t>-5,07; 9,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 21,74</t>
+          <t>-8,06; 31,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 0,82</t>
+          <t>-19,09; -0,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 8,96</t>
+          <t>-14,79; 5,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,99</t>
+          <t>-7,04; 15,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 101,12</t>
+          <t>-21,93; 162,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>16,29%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,45</t>
+          <t>-16,02; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 9,35</t>
+          <t>-10,95; 6,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 7,74</t>
+          <t>-11,52; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 25,78</t>
+          <t>-15,63; 27,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 8,02</t>
+          <t>-21,15; 5,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,26</t>
+          <t>-14,33; 8,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 11,3</t>
+          <t>-14,71; 7,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 114,35</t>
+          <t>-41,45; 126,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,73</t>
+          <t>-6,51; 9,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,46</t>
+          <t>-2,62; 13,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,43</t>
+          <t>-5,76; 10,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 16,06</t>
+          <t>-21,66; 18,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,34</t>
+          <t>-8,4; 13,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 5,46</t>
+          <t>-3,42; 20,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,0</t>
+          <t>-7,55; 15,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 61,62</t>
+          <t>-50,99; 75,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 2,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 3,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 4,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 15,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 4,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 5,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 6,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 62,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,45</t>
+          <t>0,19; 20,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 8,43</t>
+          <t>-11,29; 8,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 11,36</t>
+          <t>-8,73; 11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 27,91</t>
+          <t>-17,66; 28,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 72,01</t>
+          <t>0,0; 68,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 20,35</t>
+          <t>-21,91; 18,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 37,26</t>
+          <t>-20,83; 37,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 185,88</t>
+          <t>-50,41; 173,06</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 0,07</t>
+          <t>-14,24; 0,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 3,45</t>
+          <t>-9,81; 4,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 9,85</t>
+          <t>-4,52; 9,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 31,75</t>
+          <t>-9,39; 30,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -0,02</t>
+          <t>-19,58; 1,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 5,3</t>
+          <t>-13,65; 6,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 15,77</t>
+          <t>-6,47; 15,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 162,51</t>
+          <t>-25,9; 148,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 3,61</t>
+          <t>-16,52; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 6,18</t>
+          <t>-9,87; 6,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 5,45</t>
+          <t>-11,28; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 27,94</t>
+          <t>-15,54; 29,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 5,44</t>
+          <t>-21,37; 5,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 8,67</t>
+          <t>-12,82; 8,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 7,64</t>
+          <t>-14,48; 6,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 126,17</t>
+          <t>-41,89; 146,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 9,37</t>
+          <t>-5,88; 9,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 13,52</t>
+          <t>-2,76; 13,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 10,71</t>
+          <t>-6,07; 9,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 18,01</t>
+          <t>-20,18; 20,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 13,52</t>
+          <t>-7,66; 13,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 20,28</t>
+          <t>-3,45; 21,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 15,64</t>
+          <t>-7,9; 14,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 75,02</t>
+          <t>-48,14; 83,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,9</t>
+          <t>-5,82; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,62</t>
+          <t>-5,16; 3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,17</t>
+          <t>-4,25; 4,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 15,96</t>
+          <t>-6,1; 16,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,64</t>
+          <t>-8,78; 4,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,72</t>
+          <t>-7,67; 5,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,57</t>
+          <t>-6,21; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 62,28</t>
+          <t>-17,3; 60,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 20,36</t>
+          <t>-0,63; 21,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 8,06</t>
+          <t>-11,9; 8,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 11,7</t>
+          <t>-8,04; 11,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 28,35</t>
+          <t>-18,52; 26,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,83</t>
+          <t>-1,73; 70,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 18,86</t>
+          <t>-23,19; 20,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 37,8</t>
+          <t>-19,08; 37,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 173,06</t>
+          <t>-49,25; 187,63</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 0,7</t>
+          <t>-13,02; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 4,42</t>
+          <t>-10,17; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 9,71</t>
+          <t>-4,39; 10,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 30,06</t>
+          <t>-11,65; 27,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 1,14</t>
+          <t>-18,66; 2,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 6,63</t>
+          <t>-14,17; 5,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 15,15</t>
+          <t>-6,23; 16,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 148,83</t>
+          <t>-32,97; 130,7</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 3,56</t>
+          <t>-16,01; 4,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 6,21</t>
+          <t>-11,47; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 4,68</t>
+          <t>-11,59; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 29,27</t>
+          <t>-15,22; 31,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 5,61</t>
+          <t>-20,82; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 8,86</t>
+          <t>-14,73; 10,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 6,74</t>
+          <t>-14,74; 6,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 146,91</t>
+          <t>-39,92; 151,45</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-2,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 9,55</t>
+          <t>-6,96; 7,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 13,96</t>
+          <t>-2,84; 14,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 9,83</t>
+          <t>-6,35; 10,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 20,38</t>
+          <t>-23,52; 20,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 13,79</t>
+          <t>-9,18; 11,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 21,16</t>
+          <t>-3,84; 20,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 14,6</t>
+          <t>-8,14; 16,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 83,99</t>
+          <t>-54,78; 81,61</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,86</t>
+          <t>-5,96; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 3,72</t>
+          <t>-4,94; 3,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,57</t>
+          <t>-3,55; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 16,33</t>
+          <t>-6,06; 16,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 4,57</t>
+          <t>-9,02; 4,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,81</t>
+          <t>-7,28; 5,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 7,27</t>
+          <t>-5,35; 7,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 60,59</t>
+          <t>-16,91; 61,33</t>
         </is>
       </c>
     </row>
